--- a/汽柴煤油2.0/data_input/中石化航空煤油Non-Trend_F0.2.xlsx
+++ b/汽柴煤油2.0/data_input/中石化航空煤油Non-Trend_F0.2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3754"/>
+  <dimension ref="A1:H3756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74396,13 +74396,55 @@
       <c r="D3754" t="n">
         <v>7.12621</v>
       </c>
-      <c r="E3754" t="inlineStr"/>
-      <c r="F3754" t="inlineStr"/>
+      <c r="E3754" t="n">
+        <v>-0.0431</v>
+      </c>
+      <c r="F3754" t="n">
+        <v>66.0095</v>
+      </c>
       <c r="G3754" t="n">
-        <v>707.5135</v>
+        <v>705.4915</v>
       </c>
       <c r="H3754" t="n">
         <v>82.783</v>
+      </c>
+    </row>
+    <row r="3755">
+      <c r="A3755" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3755" t="inlineStr"/>
+      <c r="C3755" t="inlineStr"/>
+      <c r="D3755" t="n">
+        <v>7.10912</v>
+      </c>
+      <c r="E3755" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F3755" t="n">
+        <v>72.0795</v>
+      </c>
+      <c r="G3755" t="n">
+        <v>704.8403</v>
+      </c>
+      <c r="H3755" t="n">
+        <v>103.5308</v>
+      </c>
+    </row>
+    <row r="3756">
+      <c r="A3756" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3756" t="inlineStr"/>
+      <c r="C3756" t="inlineStr"/>
+      <c r="D3756" t="inlineStr"/>
+      <c r="E3756" t="inlineStr"/>
+      <c r="F3756" t="inlineStr"/>
+      <c r="G3756" t="n">
+        <v>703.659</v>
+      </c>
+      <c r="H3756" t="n">
+        <v>81.6985</v>
       </c>
     </row>
   </sheetData>
